--- a/data/trans_orig/IMC_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IMC_R-Estudios-trans_orig.xlsx
@@ -554,7 +554,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Índice de masa corporal (recodificación OMS) en 2007 (tasa de respuesta: 98,86%)</t>
+          <t>Población según las categorías de la OMS del Índice de Masa Corporal (IMC) en 2007 (tasa de respuesta: 98,86%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -2221,7 +2221,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Índice de masa corporal (recodificación OMS) en 2012 (tasa de respuesta: 96,9%)</t>
+          <t>Población según las categorías de la OMS del Índice de Masa Corporal (IMC) en 2012 (tasa de respuesta: 96,9%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3896,7 +3896,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Índice de masa corporal (recodificación OMS) en 2016 (tasa de respuesta: 95,54%)</t>
+          <t>Población según las categorías de la OMS del Índice de Masa Corporal (IMC) en 2016 (tasa de respuesta: 95,54%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -5571,7 +5571,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Índice de masa corporal (recodificación OMS) en 2023 (tasa de respuesta: 96,36%)</t>
+          <t>Población según las categorías de la OMS del Índice de Masa Corporal (IMC) en 2023 (tasa de respuesta: 96,36%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/IMC_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IMC_R-Estudios-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>189009</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>162787</v>
+        <v>164861</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>214466</v>
+        <v>213813</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1866683601874984</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1607710454750381</v>
+        <v>0.1628190748027225</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2118096243804332</v>
+        <v>0.2111648070271425</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>321</v>
@@ -765,19 +765,19 @@
         <v>326677</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>297581</v>
+        <v>294626</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>360530</v>
+        <v>360012</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2542069186855688</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2315654465056155</v>
+        <v>0.2292660573584009</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.280549739912922</v>
+        <v>0.2801461585415113</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>508</v>
@@ -786,19 +786,19 @@
         <v>515687</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>475680</v>
+        <v>478435</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>551886</v>
+        <v>556409</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2244433560027743</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2070312960910609</v>
+        <v>0.2082303932848189</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2401983254867726</v>
+        <v>0.2421669330051868</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>506969</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>475717</v>
+        <v>475370</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>538819</v>
+        <v>540335</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.5006901579712932</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4698249390973888</v>
+        <v>0.469482582001667</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.532145715049289</v>
+        <v>0.53364301493629</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>551</v>
@@ -836,19 +836,19 @@
         <v>560345</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>526324</v>
+        <v>528869</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>594452</v>
+        <v>598392</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.4360369880029448</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.4095634204340765</v>
+        <v>0.4115436044794753</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4625779612913082</v>
+        <v>0.4656438845582337</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1069</v>
@@ -857,19 +857,19 @@
         <v>1067313</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1016541</v>
+        <v>1019210</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1110464</v>
+        <v>1115124</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.4645289890137346</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4424310307487033</v>
+        <v>0.4435927647554573</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4833096045598237</v>
+        <v>0.4853376102561826</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>306699</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>278385</v>
+        <v>279150</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>337195</v>
+        <v>336713</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.302900973523254</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2749376291451908</v>
+        <v>0.2756932261642587</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3330185263369284</v>
+        <v>0.3325424906352195</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>377</v>
@@ -907,19 +907,19 @@
         <v>384729</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>353677</v>
+        <v>352955</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>416410</v>
+        <v>416940</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2993804946100599</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2752171079748353</v>
+        <v>0.2746548693679534</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3240328543021704</v>
+        <v>0.3244455698106892</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>680</v>
@@ -928,19 +928,19 @@
         <v>691429</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>648107</v>
+        <v>647439</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>738306</v>
+        <v>734543</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.3009319342193211</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2820768659213564</v>
+        <v>0.2817860073611697</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.321334317931012</v>
+        <v>0.3196967575794004</v>
       </c>
     </row>
     <row r="7">
@@ -957,19 +957,19 @@
         <v>9863</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>4741</v>
+        <v>5313</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>18816</v>
+        <v>18060</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.009740508317954281</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.004682694830112556</v>
+        <v>0.005247528393291104</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01858311130720101</v>
+        <v>0.0178367525553238</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>14</v>
@@ -978,19 +978,19 @@
         <v>13334</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>6891</v>
+        <v>7621</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>21994</v>
+        <v>22102</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01037559870142648</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.005362120008874187</v>
+        <v>0.00593017668741593</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.01711443220683192</v>
+        <v>0.01719870555111192</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>24</v>
@@ -999,19 +999,19 @@
         <v>23196</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>15203</v>
+        <v>14922</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>33995</v>
+        <v>33440</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01009572076417002</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.006617049214073405</v>
+        <v>0.006494671104556675</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01479568356453181</v>
+        <v>0.01455422300167189</v>
       </c>
     </row>
     <row r="8">
@@ -1103,19 +1103,19 @@
         <v>155511</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>133310</v>
+        <v>131567</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>180552</v>
+        <v>182824</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.09231490422964139</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.07913571203607171</v>
+        <v>0.07810096159735409</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.107179547376808</v>
+        <v>0.1085281390166648</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>133</v>
@@ -1124,19 +1124,19 @@
         <v>138756</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>117530</v>
+        <v>117407</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>161369</v>
+        <v>163960</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.08808189430564391</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.07460756818273119</v>
+        <v>0.07452951597508771</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1024367484898642</v>
+        <v>0.1040814999849744</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>284</v>
@@ -1145,19 +1145,19 @@
         <v>294267</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>261899</v>
+        <v>262638</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>327606</v>
+        <v>330950</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.09026934262613301</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.08034011998642336</v>
+        <v>0.08056691181613278</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1004962164494593</v>
+        <v>0.1015222979537879</v>
       </c>
     </row>
     <row r="10">
@@ -1174,19 +1174,19 @@
         <v>776661</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>733943</v>
+        <v>733815</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>818753</v>
+        <v>816708</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4610432588933577</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.4356846726332246</v>
+        <v>0.4356088746623062</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4860297938481037</v>
+        <v>0.484816143234082</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>411</v>
@@ -1195,19 +1195,19 @@
         <v>419155</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>385679</v>
+        <v>384374</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>457234</v>
+        <v>457604</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.266078459952503</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2448278740055538</v>
+        <v>0.2439999460518726</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2902513594551532</v>
+        <v>0.2904862752680971</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1175</v>
@@ -1216,19 +1216,19 @@
         <v>1195816</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1144632</v>
+        <v>1139759</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1261976</v>
+        <v>1257425</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3668283825028671</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3511272064570869</v>
+        <v>0.3496322730418592</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3871235384204554</v>
+        <v>0.3857275038939353</v>
       </c>
     </row>
     <row r="11">
@@ -1245,19 +1245,19 @@
         <v>743929</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>701453</v>
+        <v>703994</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>785156</v>
+        <v>784227</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.4416127243272838</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.4163983745877899</v>
+        <v>0.4179067810031281</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.4660861472944932</v>
+        <v>0.465534883140062</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>946</v>
@@ -1266,19 +1266,19 @@
         <v>963666</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>926219</v>
+        <v>925677</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>1002415</v>
+        <v>1004352</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6117330723804904</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.5879617373456832</v>
+        <v>0.5876175353104583</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6363309710306158</v>
+        <v>0.6375605010237688</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1664</v>
@@ -1287,19 +1287,19 @@
         <v>1707596</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1647910</v>
+        <v>1646162</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1762054</v>
+        <v>1767805</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.5238217571907104</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.5055127688796267</v>
+        <v>0.5049764960175392</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.5405274022989436</v>
+        <v>0.5422916974914672</v>
       </c>
     </row>
     <row r="12">
@@ -1316,19 +1316,19 @@
         <v>8472</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3828</v>
+        <v>3785</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>15553</v>
+        <v>17426</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.005029112549717061</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.002272578133918977</v>
+        <v>0.002246801070073966</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.009232541830526944</v>
+        <v>0.01034432414453022</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>53</v>
@@ -1337,19 +1337,19 @@
         <v>53728</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>39362</v>
+        <v>40359</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>68526</v>
+        <v>69543</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.03410657336136277</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.02498709150498684</v>
+        <v>0.02562002206032224</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.04350017774523277</v>
+        <v>0.04414588303208913</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>61</v>
@@ -1358,19 +1358,19 @@
         <v>62200</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>48048</v>
+        <v>48424</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>79782</v>
+        <v>79584</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.01908051768028942</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.01473922996443209</v>
+        <v>0.01485467136333843</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.02447380152193817</v>
+        <v>0.02441314881086272</v>
       </c>
     </row>
     <row r="13">
@@ -1462,19 +1462,19 @@
         <v>50931</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>36860</v>
+        <v>37915</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>65293</v>
+        <v>67091</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.0931163187407217</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.06739046091538994</v>
+        <v>0.0693196200265464</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1193739610570214</v>
+        <v>0.1226603308448467</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>29</v>
@@ -1483,19 +1483,19 @@
         <v>31877</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>22249</v>
+        <v>21447</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>46686</v>
+        <v>43756</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.0674524982464242</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.04707916193798278</v>
+        <v>0.04538121509610728</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.09878826164848299</v>
+        <v>0.09258832331005543</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>76</v>
@@ -1504,19 +1504,19 @@
         <v>82809</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>66644</v>
+        <v>64635</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>102153</v>
+        <v>100542</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.08122050164727203</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.06536568571675212</v>
+        <v>0.06339569883582673</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1001934755714287</v>
+        <v>0.09861411890149058</v>
       </c>
     </row>
     <row r="15">
@@ -1533,19 +1533,19 @@
         <v>245463</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>220496</v>
+        <v>222354</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>268697</v>
+        <v>270721</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.4487725402218365</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.4031269705410363</v>
+        <v>0.406522759461692</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.4912499358805832</v>
+        <v>0.4949506254712849</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>95</v>
@@ -1554,19 +1554,19 @@
         <v>98232</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>81521</v>
+        <v>82521</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>117208</v>
+        <v>116542</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.2078601035891915</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.1724993496060313</v>
+        <v>0.1746156499666474</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.2480137927190407</v>
+        <v>0.2466032872340144</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>332</v>
@@ -1575,19 +1575,19 @@
         <v>343695</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>312674</v>
+        <v>314755</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>373090</v>
+        <v>377975</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.3371036527950397</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.3066778341721272</v>
+        <v>0.3087188214874358</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.3659350109345109</v>
+        <v>0.3707264783998105</v>
       </c>
     </row>
     <row r="16">
@@ -1604,19 +1604,19 @@
         <v>250571</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>226220</v>
+        <v>226387</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>272941</v>
+        <v>275464</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4581111410374418</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4135913807464437</v>
+        <v>0.4138960683091708</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4990098287284754</v>
+        <v>0.5036231058229713</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>305</v>
@@ -1625,19 +1625,19 @@
         <v>321879</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>300421</v>
+        <v>300402</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>340639</v>
+        <v>342073</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.6810987377840115</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.6356939941876878</v>
+        <v>0.635653983670298</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7207948055236535</v>
+        <v>0.7238295303368039</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>544</v>
@@ -1646,19 +1646,19 @@
         <v>572450</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>542633</v>
+        <v>537999</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>604693</v>
+        <v>603183</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.561471420758636</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.5322265618724727</v>
+        <v>0.5276808866348394</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5930964491678996</v>
+        <v>0.5916154308881113</v>
       </c>
     </row>
     <row r="17">
@@ -1688,19 +1688,19 @@
         <v>20599</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>13326</v>
+        <v>13083</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>31255</v>
+        <v>31546</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.04358866038037281</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.02819829192256564</v>
+        <v>0.02768462890300944</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.06613516566215948</v>
+        <v>0.06675232939084765</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>20</v>
@@ -1709,19 +1709,19 @@
         <v>20599</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>13046</v>
+        <v>13561</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>32171</v>
+        <v>32796</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.02020442479905231</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.01279559755236446</v>
+        <v>0.01330065372670513</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.03155433352679909</v>
+        <v>0.03216675168124074</v>
       </c>
     </row>
     <row r="18">
@@ -1813,19 +1813,19 @@
         <v>395452</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>356348</v>
+        <v>361018</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>431024</v>
+        <v>438086</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1218995832882864</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1098455464763209</v>
+        <v>0.1112850688584412</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1328646971733349</v>
+        <v>0.1350416489880544</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>483</v>
@@ -1834,19 +1834,19 @@
         <v>497311</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>456279</v>
+        <v>453860</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>540944</v>
+        <v>538448</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1492090746758289</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1368983096644281</v>
+        <v>0.1361725519277852</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1623005506536087</v>
+        <v>0.161551498502343</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>868</v>
@@ -1855,19 +1855,19 @@
         <v>892762</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>839611</v>
+        <v>841436</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>950390</v>
+        <v>947870</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1357388950030567</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1276574904101917</v>
+        <v>0.127935010236748</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1445007979349868</v>
+        <v>0.1441176397000261</v>
       </c>
     </row>
     <row r="20">
@@ -1884,19 +1884,19 @@
         <v>1529093</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1466551</v>
+        <v>1466248</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>1587582</v>
+        <v>1586094</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.4713489369566074</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.4520699353993372</v>
+        <v>0.451976671560486</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.489378338754563</v>
+        <v>0.4889196972199787</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1057</v>
@@ -1905,19 +1905,19 @@
         <v>1077731</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1024412</v>
+        <v>1026444</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>1132091</v>
+        <v>1132489</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.3233539133949597</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.307356491516477</v>
+        <v>0.3079659965077042</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3396634355430825</v>
+        <v>0.3397829130045206</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>2576</v>
@@ -1926,19 +1926,19 @@
         <v>2606825</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>2531897</v>
+        <v>2535902</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>2684381</v>
+        <v>2686796</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.3963512288616592</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.3849589902093436</v>
+        <v>0.3855679571360917</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.4081432497550395</v>
+        <v>0.408510348314078</v>
       </c>
     </row>
     <row r="21">
@@ -1955,19 +1955,19 @@
         <v>1301199</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>1248469</v>
+        <v>1242758</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>1359094</v>
+        <v>1356148</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.4010997776678299</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.3848453981123178</v>
+        <v>0.3830851088805634</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.4189460238900457</v>
+        <v>0.4180377545733023</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>1628</v>
@@ -1976,19 +1976,19 @@
         <v>1670275</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>1612206</v>
+        <v>1617232</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>1724589</v>
+        <v>1730685</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.5011358289076082</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.4837134437733981</v>
+        <v>0.4852212788791043</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.5174318979494478</v>
+        <v>0.5192607847759626</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>2888</v>
@@ -1997,19 +1997,19 @@
         <v>2971474</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>2894126</v>
+        <v>2892624</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>3054357</v>
+        <v>3051422</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.4517938779780812</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.440033600128135</v>
+        <v>0.4398052583121244</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.4643956661201386</v>
+        <v>0.4639493960477444</v>
       </c>
     </row>
     <row r="22">
@@ -2026,19 +2026,19 @@
         <v>18335</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>11175</v>
+        <v>10844</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>29415</v>
+        <v>28952</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.005651702087276208</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.003444622121332312</v>
+        <v>0.003342578023786163</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.009067166142768278</v>
+        <v>0.00892445102247626</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>87</v>
@@ -2047,19 +2047,19 @@
         <v>87661</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>70962</v>
+        <v>71686</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>109581</v>
+        <v>109676</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.02630118302160313</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.02129100182918055</v>
+        <v>0.02150817968560661</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.03287777203212987</v>
+        <v>0.03290620607330145</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>105</v>
@@ -2068,19 +2068,19 @@
         <v>105996</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>86937</v>
+        <v>86671</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>126942</v>
+        <v>126063</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01611599815720283</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01321827938302633</v>
+        <v>0.01317775129311854</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01930079490735423</v>
+        <v>0.0191670652576693</v>
       </c>
     </row>
     <row r="23">
@@ -2411,19 +2411,19 @@
         <v>233536</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>208398</v>
+        <v>206868</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>264172</v>
+        <v>261010</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2480306652050998</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2213320891091516</v>
+        <v>0.2197075935096862</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2805679182316212</v>
+        <v>0.2772097341097945</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>403</v>
@@ -2432,19 +2432,19 @@
         <v>428399</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>397727</v>
+        <v>391406</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>466134</v>
+        <v>459951</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.346416823667796</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3216142662300533</v>
+        <v>0.3165031165957388</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3769303246717908</v>
+        <v>0.3719310457638752</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>617</v>
@@ -2453,19 +2453,19 @@
         <v>661935</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>619445</v>
+        <v>621023</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>707750</v>
+        <v>705839</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3038882295902081</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2843817014153452</v>
+        <v>0.2851059649231872</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3249216109305669</v>
+        <v>0.3240445637777786</v>
       </c>
     </row>
     <row r="5">
@@ -2482,19 +2482,19 @@
         <v>454900</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>422827</v>
+        <v>423443</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>484210</v>
+        <v>488420</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.4831338385018379</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4490705412216116</v>
+        <v>0.4497249088559422</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5142632367151315</v>
+        <v>0.5187340843047704</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>468</v>
@@ -2503,19 +2503,19 @@
         <v>500402</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>466793</v>
+        <v>467905</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>537944</v>
+        <v>535974</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.4046412562285983</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3774638180152389</v>
+        <v>0.3783626652420422</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4349984820206848</v>
+        <v>0.4334055267394684</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>891</v>
@@ -2524,19 +2524,19 @@
         <v>955302</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>906559</v>
+        <v>907959</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>999014</v>
+        <v>1002976</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.4385706139935523</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4161931326359866</v>
+        <v>0.4168359928588669</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4586382474288392</v>
+        <v>0.4604572008568352</v>
       </c>
     </row>
     <row r="6">
@@ -2553,19 +2553,19 @@
         <v>245043</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>218301</v>
+        <v>218508</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>272144</v>
+        <v>276180</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2602518806599446</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2318500662499799</v>
+        <v>0.2320695651395151</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2890349451072106</v>
+        <v>0.2933210771903517</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>277</v>
@@ -2574,19 +2574,19 @@
         <v>303789</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>274490</v>
+        <v>275164</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>337557</v>
+        <v>336755</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2456535539277896</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2219614259654416</v>
+        <v>0.2225059640637352</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.272959563090359</v>
+        <v>0.2723107490300493</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>510</v>
@@ -2595,19 +2595,19 @@
         <v>548832</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>507898</v>
+        <v>510218</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>589562</v>
+        <v>595609</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2519638553106738</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2331712302740832</v>
+        <v>0.2342366664066074</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2706624360468199</v>
+        <v>0.2734386502140431</v>
       </c>
     </row>
     <row r="7">
@@ -2624,19 +2624,19 @@
         <v>8082</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>3085</v>
+        <v>3923</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>14387</v>
+        <v>15399</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.008583615633117676</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.003276353062323812</v>
+        <v>0.00416682962196428</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01527949927118168</v>
+        <v>0.01635456370674097</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>4</v>
@@ -2645,19 +2645,19 @@
         <v>4067</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1017</v>
+        <v>1028</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>10197</v>
+        <v>10133</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.003288366175816187</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.0008223036800723133</v>
+        <v>0.0008316586340577349</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.008245927085204224</v>
+        <v>0.008193734057149292</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>12</v>
@@ -2666,19 +2666,19 @@
         <v>12149</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>6966</v>
+        <v>6086</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>20971</v>
+        <v>19879</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.00557730110556577</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.00319799708818275</v>
+        <v>0.002793995814583565</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.009627412905811667</v>
+        <v>0.009126057799200865</v>
       </c>
     </row>
     <row r="8">
@@ -2770,19 +2770,19 @@
         <v>271257</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>240441</v>
+        <v>240232</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>304332</v>
+        <v>305079</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1397600326019499</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1238823351201526</v>
+        <v>0.1237746486360712</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1568012516498361</v>
+        <v>0.1571859045564364</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>239</v>
@@ -2791,19 +2791,19 @@
         <v>260429</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>232284</v>
+        <v>229775</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>293878</v>
+        <v>292353</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1520970443481089</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1356592449137471</v>
+        <v>0.1341944335495389</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1716319225658524</v>
+        <v>0.1707409588358834</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>491</v>
@@ -2812,19 +2812,19 @@
         <v>531687</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>488450</v>
+        <v>485574</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>580931</v>
+        <v>574654</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1455425004383959</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1337070452352402</v>
+        <v>0.1329197603685444</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1590226688984984</v>
+        <v>0.1573041934962814</v>
       </c>
     </row>
     <row r="10">
@@ -2841,19 +2841,19 @@
         <v>957978</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>906579</v>
+        <v>913577</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>998391</v>
+        <v>1008745</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4935793507080275</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.467096976773074</v>
+        <v>0.47070248214447</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5144013320422355</v>
+        <v>0.5197359040463062</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>482</v>
@@ -2862,19 +2862,19 @@
         <v>525806</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>485666</v>
+        <v>488536</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>564967</v>
+        <v>569835</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3070833570031448</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2836406063492927</v>
+        <v>0.2853169134537235</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3299543037407208</v>
+        <v>0.3327976211064272</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1383</v>
@@ -2883,19 +2883,19 @@
         <v>1483783</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1426988</v>
+        <v>1423126</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1544580</v>
+        <v>1542272</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4061670090961886</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3906201327553745</v>
+        <v>0.3895627775056848</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4228092119700087</v>
+        <v>0.4221775064171859</v>
       </c>
     </row>
     <row r="11">
@@ -2912,19 +2912,19 @@
         <v>689624</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>650416</v>
+        <v>643652</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>738185</v>
+        <v>731766</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3553153176672695</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.335113909058798</v>
+        <v>0.3316289359075098</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3803352526662457</v>
+        <v>0.3770282491803278</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>808</v>
@@ -2933,19 +2933,19 @@
         <v>861722</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>820512</v>
+        <v>817365</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>905894</v>
+        <v>904274</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.5032663331104812</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.4791987667456572</v>
+        <v>0.4773610192969915</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.5290638795821571</v>
+        <v>0.528117606327914</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1469</v>
@@ -2954,19 +2954,19 @@
         <v>1551345</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1495136</v>
+        <v>1490367</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1613164</v>
+        <v>1611924</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.4246612829441733</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.4092746087544906</v>
+        <v>0.4079691525788783</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.4415832360980202</v>
+        <v>0.441243781312123</v>
       </c>
     </row>
     <row r="12">
@@ -2983,19 +2983,19 @@
         <v>22020</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>14243</v>
+        <v>14512</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>32681</v>
+        <v>34390</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.01134529902275315</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.007338526279362053</v>
+        <v>0.007476900691055163</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.01683801801553211</v>
+        <v>0.01771865173976602</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>63</v>
@@ -3004,19 +3004,19 @@
         <v>64301</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>49591</v>
+        <v>50617</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>81835</v>
+        <v>81507</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.03755326553826507</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.02896223392269389</v>
+        <v>0.02956150536468232</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.0477935441275408</v>
+        <v>0.04760200800936174</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>85</v>
@@ -3025,19 +3025,19 @@
         <v>86321</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>69465</v>
+        <v>68689</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>105891</v>
+        <v>105100</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.02362920752124217</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.01901515790301407</v>
+        <v>0.01880280620227525</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.0289862669343283</v>
+        <v>0.02876993687899336</v>
       </c>
     </row>
     <row r="13">
@@ -3129,19 +3129,19 @@
         <v>49615</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>36827</v>
+        <v>36983</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>66035</v>
+        <v>68100</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1051315030610432</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.07803359536301364</v>
+        <v>0.07836423662264463</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1399246115532389</v>
+        <v>0.1443005679047026</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>26</v>
@@ -3150,19 +3150,19 @@
         <v>28124</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>18977</v>
+        <v>18891</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>40355</v>
+        <v>41466</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.06187318703733755</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.04174939999841413</v>
+        <v>0.04156076530589511</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.0887812688406807</v>
+        <v>0.09122577981060968</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>69</v>
@@ -3171,19 +3171,19 @@
         <v>77739</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>61306</v>
+        <v>61437</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>97585</v>
+        <v>97992</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.08390821556838089</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.06617035957085204</v>
+        <v>0.06631214269061737</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.105328976744358</v>
+        <v>0.1057681055381412</v>
       </c>
     </row>
     <row r="15">
@@ -3200,19 +3200,19 @@
         <v>226736</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>202268</v>
+        <v>203663</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>251133</v>
+        <v>249674</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.4804406116333885</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.4285946005274787</v>
+        <v>0.4315490479694826</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.5321352340897113</v>
+        <v>0.5290439162434252</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>96</v>
@@ -3221,19 +3221,19 @@
         <v>105078</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>87972</v>
+        <v>89392</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>124591</v>
+        <v>126691</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.2311704057494054</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.1935363563030499</v>
+        <v>0.1966607590269585</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.2740980446960651</v>
+        <v>0.2787192830605274</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>306</v>
@@ -3242,19 +3242,19 @@
         <v>331814</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>298399</v>
+        <v>300349</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>360261</v>
+        <v>362306</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.3581442827626165</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.3220778900895239</v>
+        <v>0.3241825757765272</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.3888481671255009</v>
+        <v>0.391055382607308</v>
       </c>
     </row>
     <row r="16">
@@ -3271,19 +3271,19 @@
         <v>194628</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>170995</v>
+        <v>172161</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>219560</v>
+        <v>217585</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4124057313340408</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.362327600866885</v>
+        <v>0.3647997435517735</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4652340149387045</v>
+        <v>0.4610500885722281</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>271</v>
@@ -3292,19 +3292,19 @@
         <v>305925</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>285115</v>
+        <v>283619</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>326198</v>
+        <v>324689</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.6730310506557439</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.627249792949894</v>
+        <v>0.6239583120778294</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7176316467555769</v>
+        <v>0.7143120178188281</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>446</v>
@@ -3313,19 +3313,19 @@
         <v>500553</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>468423</v>
+        <v>467916</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>531763</v>
+        <v>533840</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.5402730777374524</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.5055937265612758</v>
+        <v>0.5050457673864311</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5739597359686089</v>
+        <v>0.5762012806517269</v>
       </c>
     </row>
     <row r="17">
@@ -3345,7 +3345,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>4439</v>
+        <v>4818</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.002022153971527527</v>
@@ -3354,7 +3354,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.009406628675246061</v>
+        <v>0.0102085440442275</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>15</v>
@@ -3363,19 +3363,19 @@
         <v>15421</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>9075</v>
+        <v>9221</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>23960</v>
+        <v>24446</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.03392535655751309</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.01996519655458698</v>
+        <v>0.02028625708729391</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.05271114904329729</v>
+        <v>0.05378150109184188</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>16</v>
@@ -3384,19 +3384,19 @@
         <v>16375</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>10044</v>
+        <v>9559</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>26369</v>
+        <v>25908</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.01767442393155028</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.0108409942126368</v>
+        <v>0.01031705140560212</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.02846196394687475</v>
+        <v>0.02796332653162655</v>
       </c>
     </row>
     <row r="18">
@@ -3488,19 +3488,19 @@
         <v>554408</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>512518</v>
+        <v>511291</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>608109</v>
+        <v>597756</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.16527925586741</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1527909604788607</v>
+        <v>0.1524250872157726</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.181288529072806</v>
+        <v>0.1782020553263705</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>668</v>
@@ -3509,19 +3509,19 @@
         <v>716952</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>668918</v>
+        <v>668344</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>764221</v>
+        <v>766556</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2106538180812225</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1965404407195807</v>
+        <v>0.1963716085238934</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.224542201698282</v>
+        <v>0.2252281945549759</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>1177</v>
@@ -3530,19 +3530,19 @@
         <v>1271361</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>1203704</v>
+        <v>1205393</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>1334287</v>
+        <v>1337894</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1881313409651028</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1781197021129037</v>
+        <v>0.1783696539094899</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1974429419161771</v>
+        <v>0.1979766877431686</v>
       </c>
     </row>
     <row r="20">
@@ -3559,19 +3559,19 @@
         <v>1639614</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1578005</v>
+        <v>1578380</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>1703617</v>
+        <v>1699164</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.488798816625291</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.4704320615761041</v>
+        <v>0.4705438360665047</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.5078795286041804</v>
+        <v>0.5065520087638093</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1046</v>
@@ -3580,19 +3580,19 @@
         <v>1131286</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1075672</v>
+        <v>1072085</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>1190564</v>
+        <v>1187023</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.3323927431709089</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.3160522066648122</v>
+        <v>0.3149981674551898</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3498095901116818</v>
+        <v>0.3487693227623981</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>2580</v>
@@ -3601,19 +3601,19 @@
         <v>2770900</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>2688329</v>
+        <v>2682640</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>2855085</v>
+        <v>2855810</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.41002770069621</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.3978092109609059</v>
+        <v>0.3969673784574659</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.4224850962038562</v>
+        <v>0.4225924540319518</v>
       </c>
     </row>
     <row r="21">
@@ -3630,19 +3630,19 @@
         <v>1129295</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>1066888</v>
+        <v>1069794</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>1184526</v>
+        <v>1189289</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.3366635154495468</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.3180588797728924</v>
+        <v>0.318925318054859</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3531288452296569</v>
+        <v>0.3545488152480918</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>1356</v>
@@ -3651,19 +3651,19 @@
         <v>1471436</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>1409279</v>
+        <v>1404852</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>1534542</v>
+        <v>1529569</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.4323349354215359</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.4140721031148367</v>
+        <v>0.4127712545076644</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.4508765819759467</v>
+        <v>0.4494155862381394</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>2425</v>
@@ -3672,19 +3672,19 @@
         <v>2600731</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>2516825</v>
+        <v>2520904</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>2682817</v>
+        <v>2680716</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.3848467115829844</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.3724306934642319</v>
+        <v>0.3730343101695688</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.3969935077760051</v>
+        <v>0.3966826993210067</v>
       </c>
     </row>
     <row r="22">
@@ -3701,19 +3701,19 @@
         <v>31056</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>22215</v>
+        <v>21853</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>44557</v>
+        <v>44148</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.009258412057752241</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.00662283775413208</v>
+        <v>0.006514747137951755</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01328316974824465</v>
+        <v>0.0131613003306066</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>82</v>
@@ -3722,19 +3722,19 @@
         <v>83788</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>67555</v>
+        <v>66039</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>104477</v>
+        <v>103765</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.02461850332633255</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01984903252638933</v>
+        <v>0.01940359771784809</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.03069713134372538</v>
+        <v>0.0304880447878705</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>113</v>
@@ -3743,19 +3743,19 @@
         <v>114844</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>96013</v>
+        <v>93240</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>139255</v>
+        <v>137433</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01699424675570275</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01420770440601975</v>
+        <v>0.01379729969890685</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02060645891229738</v>
+        <v>0.02033690089905773</v>
       </c>
     </row>
     <row r="23">
@@ -4086,19 +4086,19 @@
         <v>167939</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>144646</v>
+        <v>146244</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>193341</v>
+        <v>190353</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2361287784274222</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2033772729740761</v>
+        <v>0.2056243851531512</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2718452351745786</v>
+        <v>0.267643344255304</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>263</v>
@@ -4110,16 +4110,16 @@
         <v>266096</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>328008</v>
+        <v>325142</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3352134730499378</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3011348623392981</v>
+        <v>0.3011346275723388</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3711993842453967</v>
+        <v>0.3679553627677843</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>430</v>
@@ -4128,19 +4128,19 @@
         <v>464149</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>430412</v>
+        <v>428939</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>504891</v>
+        <v>506406</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2910272887439074</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.269873571962206</v>
+        <v>0.2689501419435105</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3165729453306806</v>
+        <v>0.3175227665844469</v>
       </c>
     </row>
     <row r="5">
@@ -4157,19 +4157,19 @@
         <v>356513</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>331439</v>
+        <v>328244</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>382316</v>
+        <v>384332</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.5012709516821228</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.466015105429326</v>
+        <v>0.4615231913395065</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5375500196064171</v>
+        <v>0.5403853937179239</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>320</v>
@@ -4178,19 +4178,19 @@
         <v>351398</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>319634</v>
+        <v>318085</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>379218</v>
+        <v>380621</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.397668491034041</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.361722690056818</v>
+        <v>0.3599689137458131</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.429151432966039</v>
+        <v>0.4307400766572916</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>685</v>
@@ -4199,19 +4199,19 @@
         <v>707911</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>666741</v>
+        <v>667332</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>746174</v>
+        <v>747845</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.4438693441344567</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4180550786672568</v>
+        <v>0.4184256332971456</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4678606815305105</v>
+        <v>0.4689080327358001</v>
       </c>
     </row>
     <row r="6">
@@ -4228,19 +4228,19 @@
         <v>182912</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>160026</v>
+        <v>160253</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>205120</v>
+        <v>206764</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2571808557204177</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2250021657621291</v>
+        <v>0.2253216457098983</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2884068680942246</v>
+        <v>0.2907180356031592</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>209</v>
@@ -4249,19 +4249,19 @@
         <v>227548</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>202912</v>
+        <v>199382</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>255269</v>
+        <v>257175</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2575102048048875</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2296304825676012</v>
+        <v>0.2256358209880147</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2888818253391792</v>
+        <v>0.291039081642808</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>390</v>
@@ -4270,19 +4270,19 @@
         <v>410460</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>375231</v>
+        <v>377206</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>446627</v>
+        <v>450348</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2573633336922213</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2352744297606738</v>
+        <v>0.2365132116598276</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2800406894855305</v>
+        <v>0.2823740371294238</v>
       </c>
     </row>
     <row r="7">
@@ -4299,19 +4299,19 @@
         <v>3854</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>990</v>
+        <v>985</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>9622</v>
+        <v>9881</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.005419414170037429</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.001392112270225999</v>
+        <v>0.001385354740313125</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01352913975369996</v>
+        <v>0.01389346446329718</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>7</v>
@@ -4320,19 +4320,19 @@
         <v>8490</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>3738</v>
+        <v>3532</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>17610</v>
+        <v>18024</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.009607831111133742</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.004229731793030556</v>
+        <v>0.00399744968158823</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.01992858988963988</v>
+        <v>0.02039729190971598</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>11</v>
@@ -4341,19 +4341,19 @@
         <v>12344</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>6006</v>
+        <v>6227</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>22096</v>
+        <v>21815</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.007740033429414623</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.003765590048627085</v>
+        <v>0.003904463383871226</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01385436241732703</v>
+        <v>0.01367806514332209</v>
       </c>
     </row>
     <row r="8">
@@ -4445,19 +4445,19 @@
         <v>326473</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>293721</v>
+        <v>292704</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>360964</v>
+        <v>359894</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1621768949885154</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1459072248582456</v>
+        <v>0.1454018054800799</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1793105207412196</v>
+        <v>0.1787787131412391</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>258</v>
@@ -4466,19 +4466,19 @@
         <v>276239</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>246529</v>
+        <v>247961</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>310396</v>
+        <v>310352</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1436865492701634</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.128233062798696</v>
+        <v>0.1289778049921213</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1614537682635755</v>
+        <v>0.1614307268505651</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>560</v>
@@ -4487,19 +4487,19 @@
         <v>602712</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>559290</v>
+        <v>558244</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>645539</v>
+        <v>649057</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1531444581782596</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1421112570177165</v>
+        <v>0.1418454429769389</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.164026563062891</v>
+        <v>0.1649204165806184</v>
       </c>
     </row>
     <row r="10">
@@ -4516,19 +4516,19 @@
         <v>849614</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>805923</v>
+        <v>807070</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>896157</v>
+        <v>892833</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4220492369956325</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.4003455926901557</v>
+        <v>0.4009153330463816</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4451694831853927</v>
+        <v>0.4435180853388864</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>601</v>
@@ -4537,19 +4537,19 @@
         <v>629844</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>587954</v>
+        <v>588937</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>670291</v>
+        <v>670376</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3276152202383221</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3058261616711608</v>
+        <v>0.3063375452981199</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.348654102187682</v>
+        <v>0.3486985457091847</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1401</v>
@@ -4558,19 +4558,19 @@
         <v>1479458</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1415452</v>
+        <v>1413105</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1543434</v>
+        <v>1539338</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3759187155823708</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3596554283305184</v>
+        <v>0.3590589812996198</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3921746165763948</v>
+        <v>0.3911337938918711</v>
       </c>
     </row>
     <row r="11">
@@ -4587,19 +4587,19 @@
         <v>813851</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>771392</v>
+        <v>770331</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>856033</v>
+        <v>857003</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.4042839142889492</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3831922128734971</v>
+        <v>0.3826650168922091</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.4252380047477775</v>
+        <v>0.4257194269015414</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>925</v>
@@ -4608,19 +4608,19 @@
         <v>954222</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>912931</v>
+        <v>914293</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>1002104</v>
+        <v>999013</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.4963416732867503</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.4748641619506739</v>
+        <v>0.4755724646355151</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.5212477155039105</v>
+        <v>0.5196400319836693</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1695</v>
@@ -4629,19 +4629,19 @@
         <v>1768073</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1701294</v>
+        <v>1706632</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1831436</v>
+        <v>1833252</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.4492536462618952</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.4322855857409845</v>
+        <v>0.4336418557032832</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.465353554889626</v>
+        <v>0.4658149478408763</v>
       </c>
     </row>
     <row r="12">
@@ -4658,19 +4658,19 @@
         <v>23130</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>14366</v>
+        <v>14751</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>34022</v>
+        <v>34586</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.01148995372690299</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.007136581178496667</v>
+        <v>0.007327631247545906</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.01690075768440466</v>
+        <v>0.01718096601857951</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>63</v>
@@ -4679,19 +4679,19 @@
         <v>62206</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>46476</v>
+        <v>46818</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>78353</v>
+        <v>77394</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.0323565572047642</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.02417475806261104</v>
+        <v>0.02435231174595127</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.04075566402316146</v>
+        <v>0.04025693269111549</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>85</v>
@@ -4700,19 +4700,19 @@
         <v>85336</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>68567</v>
+        <v>69235</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>104714</v>
+        <v>106044</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.02168317997747439</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.01742232906120489</v>
+        <v>0.01759215706255675</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.02660690815846856</v>
+        <v>0.02694502707311185</v>
       </c>
     </row>
     <row r="13">
@@ -4804,19 +4804,19 @@
         <v>61185</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>47208</v>
+        <v>46454</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>76766</v>
+        <v>78164</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1148159288741741</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.08858692776736497</v>
+        <v>0.08717198421582063</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1440550207930229</v>
+        <v>0.1466772815751755</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>45</v>
@@ -4825,19 +4825,19 @@
         <v>50097</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>37561</v>
+        <v>37741</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>65371</v>
+        <v>66309</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.09565425279503996</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.07171717073358008</v>
+        <v>0.0720612652307699</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1248183767990154</v>
+        <v>0.1266079719942045</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>100</v>
@@ -4846,19 +4846,19 @@
         <v>111282</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>90756</v>
+        <v>91346</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>134559</v>
+        <v>132804</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1053181679686313</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.08589236879144205</v>
+        <v>0.08645066971071551</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1273475145164799</v>
+        <v>0.1256863485462206</v>
       </c>
     </row>
     <row r="15">
@@ -4875,19 +4875,19 @@
         <v>219102</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>192713</v>
+        <v>196148</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>242438</v>
+        <v>244066</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.4111546930580666</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.361634264115431</v>
+        <v>0.3680796459010127</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.4549447827273611</v>
+        <v>0.4580000865258025</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>130</v>
@@ -4896,19 +4896,19 @@
         <v>136022</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>116834</v>
+        <v>113476</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>157513</v>
+        <v>155611</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.2597168557534305</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.2230806503391016</v>
+        <v>0.2166688396883742</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.3007508342893255</v>
+        <v>0.2971193234155758</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>331</v>
@@ -4917,19 +4917,19 @@
         <v>355124</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>321541</v>
+        <v>324849</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>386558</v>
+        <v>389096</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.3360923464850458</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.3043089261269885</v>
+        <v>0.3074398507992155</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.3658411175309666</v>
+        <v>0.3682437066721796</v>
       </c>
     </row>
     <row r="16">
@@ -4946,19 +4946,19 @@
         <v>249875</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>226482</v>
+        <v>226909</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>275384</v>
+        <v>272970</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4689012508563281</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4250029479130811</v>
+        <v>0.4258037004256462</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5167692066382792</v>
+        <v>0.5122394391966908</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>316</v>
@@ -4967,19 +4967,19 @@
         <v>326834</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>306514</v>
+        <v>304378</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>347616</v>
+        <v>350632</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.6240489063766353</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5852505805557132</v>
+        <v>0.581170982112565</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6637293616199189</v>
+        <v>0.6694883984491948</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>546</v>
@@ -4988,19 +4988,19 @@
         <v>576710</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>544546</v>
+        <v>542995</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>613500</v>
+        <v>607264</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.5458024222936227</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.5153625697227705</v>
+        <v>0.5138950766303618</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5806212160995354</v>
+        <v>0.5747195162192732</v>
       </c>
     </row>
     <row r="17">
@@ -5017,19 +5017,19 @@
         <v>2733</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>879</v>
+        <v>884</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>7671</v>
+        <v>7628</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.005128127211431217</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.001649462693450559</v>
+        <v>0.001659629876350259</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.01439440376357464</v>
+        <v>0.01431376200009488</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>11</v>
@@ -5038,19 +5038,19 @@
         <v>10778</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>5570</v>
+        <v>5939</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>18962</v>
+        <v>18243</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.02057998507489415</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.01063493470660958</v>
+        <v>0.01134012191597922</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.03620579656904672</v>
+        <v>0.03483267374345057</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>14</v>
@@ -5059,19 +5059,19 @@
         <v>13511</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>8001</v>
+        <v>7626</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>21215</v>
+        <v>21421</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.01278706325270024</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.007571891722899733</v>
+        <v>0.007217655309005307</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.02007849413147696</v>
+        <v>0.02027276717001991</v>
       </c>
     </row>
     <row r="18">
@@ -5163,19 +5163,19 @@
         <v>555597</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>515562</v>
+        <v>512844</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>599513</v>
+        <v>599140</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.170576057892826</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1582845595224775</v>
+        <v>0.1574500553526657</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.184058755799102</v>
+        <v>0.1839440762195732</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>566</v>
@@ -5184,19 +5184,19 @@
         <v>622546</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>573747</v>
+        <v>579564</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>665678</v>
+        <v>674892</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1869569955658299</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.17230235617471</v>
+        <v>0.1740490214704388</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1999100635618307</v>
+        <v>0.2026772622555811</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>1090</v>
@@ -5205,19 +5205,19 @@
         <v>1178143</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>1113875</v>
+        <v>1117242</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>1235875</v>
+        <v>1241378</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1788569273522549</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1691002088732387</v>
+        <v>0.1696114128289437</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1876213818463184</v>
+        <v>0.1884568484232895</v>
       </c>
     </row>
     <row r="20">
@@ -5234,19 +5234,19 @@
         <v>1425230</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1368632</v>
+        <v>1370045</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>1485623</v>
+        <v>1482044</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.4375652140328363</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.4201887688880692</v>
+        <v>0.4206225989945318</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4561067204925215</v>
+        <v>0.4550079812281786</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1051</v>
@@ -5255,19 +5255,19 @@
         <v>1117263</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1063864</v>
+        <v>1056519</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>1173423</v>
+        <v>1169025</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.3355258876829345</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.3194894059674657</v>
+        <v>0.3172836957681618</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3523913522316235</v>
+        <v>0.3510704595058851</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>2417</v>
@@ -5276,19 +5276,19 @@
         <v>2542493</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>2464354</v>
+        <v>2455334</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>2625627</v>
+        <v>2624062</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.3859824317709799</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.3741199562842569</v>
+        <v>0.3727504875955514</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3986031602341398</v>
+        <v>0.3983656601513146</v>
       </c>
     </row>
     <row r="21">
@@ -5305,19 +5305,19 @@
         <v>1246638</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>1189358</v>
+        <v>1185496</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>1299861</v>
+        <v>1300242</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.3827351346513954</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.3651493543024969</v>
+        <v>0.3639635134993498</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3990751371732789</v>
+        <v>0.3991921443753774</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>1450</v>
@@ -5326,19 +5326,19 @@
         <v>1508604</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>1453803</v>
+        <v>1450110</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>1569596</v>
+        <v>1569936</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.4530495861721413</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.4365921783807259</v>
+        <v>0.4354831192534577</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.4713662568816473</v>
+        <v>0.4714681519513503</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>2631</v>
@@ -5347,19 +5347,19 @@
         <v>2755242</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>2676604</v>
+        <v>2676209</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>2844247</v>
+        <v>2835707</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.4182804010932684</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.4063421027270426</v>
+        <v>0.4062821764280526</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.4317924833209982</v>
+        <v>0.430495925693006</v>
       </c>
     </row>
     <row r="22">
@@ -5376,19 +5376,19 @@
         <v>29717</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>20077</v>
+        <v>20516</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>41899</v>
+        <v>41263</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.009123593422942305</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.006163905740971612</v>
+        <v>0.006298649279537514</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01286364798372673</v>
+        <v>0.01266830535644153</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>81</v>
@@ -5397,19 +5397,19 @@
         <v>81474</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>64774</v>
+        <v>64972</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>99226</v>
+        <v>98203</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.02446753057909423</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01945219588186718</v>
+        <v>0.01951164441387642</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.02979870670578949</v>
+        <v>0.0294914061962443</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>110</v>
@@ -5418,19 +5418,19 @@
         <v>111191</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>93099</v>
+        <v>92113</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>133102</v>
+        <v>135281</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01688023978349675</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01413366956840069</v>
+        <v>0.01398386715065525</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.020206588879948</v>
+        <v>0.02053730501155092</v>
       </c>
     </row>
     <row r="23">
@@ -5761,19 +5761,19 @@
         <v>136057</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>115889</v>
+        <v>118277</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>155257</v>
+        <v>156192</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.249880449968435</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2128401521744671</v>
+        <v>0.2172263535105144</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2851437324417291</v>
+        <v>0.2868593983027993</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>379</v>
@@ -5782,19 +5782,19 @@
         <v>215713</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>197785</v>
+        <v>197713</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>234559</v>
+        <v>237656</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2871764418377644</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2633093697462227</v>
+        <v>0.2632131105442774</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.312265453068667</v>
+        <v>0.3163882328290744</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>544</v>
@@ -5803,19 +5803,19 @@
         <v>351770</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>325065</v>
+        <v>323892</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>380330</v>
+        <v>379370</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2715029385041625</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2508913106793136</v>
+        <v>0.2499863245350564</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.293545706259884</v>
+        <v>0.2928051873567525</v>
       </c>
     </row>
     <row r="5">
@@ -5832,19 +5832,19 @@
         <v>269384</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>247124</v>
+        <v>246602</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>292931</v>
+        <v>291114</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.4947473233729799</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4538648006672648</v>
+        <v>0.4529068175030033</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5379940357786376</v>
+        <v>0.5346570226104104</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>595</v>
@@ -5853,19 +5853,19 @@
         <v>345369</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>325483</v>
+        <v>324189</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>367464</v>
+        <v>369658</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.4597854854565252</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.433312350556036</v>
+        <v>0.4315893815428733</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4892003448030373</v>
+        <v>0.4921215898759714</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>927</v>
@@ -5874,19 +5874,19 @@
         <v>614753</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>586038</v>
+        <v>583485</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>645868</v>
+        <v>649628</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.4744780691811326</v>
+        <v>0.4744780691811327</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4523155759472406</v>
+        <v>0.4503447832945625</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4984934987531359</v>
+        <v>0.5013952510883848</v>
       </c>
     </row>
     <row r="6">
@@ -5903,19 +5903,19 @@
         <v>133339</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>114470</v>
+        <v>115349</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>153951</v>
+        <v>153984</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2448883394226191</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2102337693881556</v>
+        <v>0.211849410921166</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2827442664374574</v>
+        <v>0.2828054761608489</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>305</v>
@@ -5924,19 +5924,19 @@
         <v>184119</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>166606</v>
+        <v>165216</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>203463</v>
+        <v>203329</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2451156694091111</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2218009416113306</v>
+        <v>0.2199507794677497</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2708682593641401</v>
+        <v>0.270689839294447</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>458</v>
@@ -5945,19 +5945,19 @@
         <v>317458</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>292987</v>
+        <v>290884</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>344846</v>
+        <v>346430</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2450201348188636</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2261327607204591</v>
+        <v>0.224509659836322</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2661586984556625</v>
+        <v>0.2673813223094847</v>
       </c>
     </row>
     <row r="7">
@@ -5974,19 +5974,19 @@
         <v>5708</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>2410</v>
+        <v>2313</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>11615</v>
+        <v>11044</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01048388723596589</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.004426028621517127</v>
+        <v>0.004247196368517717</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02133221534852464</v>
+        <v>0.02028300525294377</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>10</v>
@@ -5995,19 +5995,19 @@
         <v>5951</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>3170</v>
+        <v>2803</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>11320</v>
+        <v>10934</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.007922403296599221</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.004219708119503252</v>
+        <v>0.003731037894577524</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.01506953209057943</v>
+        <v>0.01455648072366691</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>17</v>
@@ -6016,19 +6016,19 @@
         <v>11659</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>6973</v>
+        <v>7193</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>18682</v>
+        <v>18720</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.008998857495841112</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.005381657542145213</v>
+        <v>0.005551700693638255</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01441944727621049</v>
+        <v>0.01444845785432872</v>
       </c>
     </row>
     <row r="8">
@@ -6120,19 +6120,19 @@
         <v>360756</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>323943</v>
+        <v>323640</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>398348</v>
+        <v>398471</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1641672033469967</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1474148322111059</v>
+        <v>0.1472769074636141</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1812736950608712</v>
+        <v>0.1813298014027675</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>475</v>
@@ -6141,19 +6141,19 @@
         <v>323082</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>295008</v>
+        <v>297902</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>352989</v>
+        <v>356083</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>0.1522647041093896</v>
+        <v>0.1522647041093897</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1390337597807273</v>
+        <v>0.14039777394482</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1663594744388392</v>
+        <v>0.1678178537619346</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>832</v>
@@ -6162,19 +6162,19 @@
         <v>683839</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>636938</v>
+        <v>638403</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>732681</v>
+        <v>736167</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1583201823943212</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1474619407131671</v>
+        <v>0.1478009835893881</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1696279236774175</v>
+        <v>0.1704351217786916</v>
       </c>
     </row>
     <row r="10">
@@ -6191,19 +6191,19 @@
         <v>972078</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>921017</v>
+        <v>924616</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>1022252</v>
+        <v>1032153</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4423578448907359</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.419121756592516</v>
+        <v>0.4207595055559196</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4651901323176586</v>
+        <v>0.4696956783036244</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>1035</v>
@@ -6212,19 +6212,19 @@
         <v>701698</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>660516</v>
+        <v>665593</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>742247</v>
+        <v>745738</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3307016055012379</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3112930704003954</v>
+        <v>0.3136858771272465</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3498120673077666</v>
+        <v>0.3514575489280637</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1955</v>
@@ -6233,19 +6233,19 @@
         <v>1673776</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1609205</v>
+        <v>1612247</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1736169</v>
+        <v>1739891</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.387507484628197</v>
+        <v>0.3875074846281971</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3725580521676231</v>
+        <v>0.3732624421726033</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4019524151181165</v>
+        <v>0.4028142752886305</v>
       </c>
     </row>
     <row r="11">
@@ -6262,19 +6262,19 @@
         <v>838254</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>785341</v>
+        <v>784285</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>891932</v>
+        <v>897428</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.381459039693979</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3573803794609673</v>
+        <v>0.356899907571628</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.4058862528797689</v>
+        <v>0.4083872664074507</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1289</v>
@@ -6283,19 +6283,19 @@
         <v>1035307</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>995062</v>
+        <v>990325</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>1081144</v>
+        <v>1077798</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.4879275276918824</v>
+        <v>0.4879275276918825</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.4689605829089913</v>
+        <v>0.4667283107093662</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.5095299815470915</v>
+        <v>0.5079533593895162</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1960</v>
@@ -6304,19 +6304,19 @@
         <v>1873561</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1802839</v>
+        <v>1808013</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1939041</v>
+        <v>1937813</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.4337609527372914</v>
+        <v>0.4337609527372913</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.4173877993390884</v>
+        <v>0.4185856758813689</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.4489207713052952</v>
+        <v>0.4486365848990751</v>
       </c>
     </row>
     <row r="12">
@@ -6333,19 +6333,19 @@
         <v>26405</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>14056</v>
+        <v>13688</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>47961</v>
+        <v>46437</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.0120159120682884</v>
+        <v>0.01201591206828839</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.006396555212631928</v>
+        <v>0.006229101264856244</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.02182548762684729</v>
+        <v>0.02113162619143859</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>60</v>
@@ -6354,19 +6354,19 @@
         <v>61759</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>46669</v>
+        <v>47150</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>79234</v>
+        <v>83998</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.02910616269749012</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.0219944435237849</v>
+        <v>0.02222145633340723</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.03734217475337168</v>
+        <v>0.03958745702498754</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>73</v>
@@ -6375,19 +6375,19 @@
         <v>88164</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>67383</v>
+        <v>68156</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>114093</v>
+        <v>114466</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.02041138024019034</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.01560037790300437</v>
+        <v>0.01577929902505541</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.02641434787427243</v>
+        <v>0.02650074803135232</v>
       </c>
     </row>
     <row r="13">
@@ -6479,19 +6479,19 @@
         <v>88297</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>71812</v>
+        <v>71092</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>110144</v>
+        <v>108768</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.126347332023701</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1027591285177161</v>
+        <v>0.101727729598527</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1576086785154132</v>
+        <v>0.1556409062395632</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>107</v>
@@ -6500,19 +6500,19 @@
         <v>76478</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>62356</v>
+        <v>62992</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>90519</v>
+        <v>92673</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1071013959121132</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.08732399584083846</v>
+        <v>0.08821574514683894</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1267648391323869</v>
+        <v>0.1297808777933695</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>196</v>
@@ -6521,19 +6521,19 @@
         <v>164775</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>142658</v>
+        <v>142821</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>190767</v>
+        <v>189030</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1166206389177727</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1009676351407202</v>
+        <v>0.10108266059512</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1350169300904067</v>
+        <v>0.1337871450831983</v>
       </c>
     </row>
     <row r="15">
@@ -6550,19 +6550,19 @@
         <v>303893</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>275719</v>
+        <v>276634</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>334842</v>
+        <v>334215</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.4348519008439038</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.3945369983610193</v>
+        <v>0.3958458781159737</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.479138291008269</v>
+        <v>0.4782414853986325</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>275</v>
@@ -6571,19 +6571,19 @@
         <v>189335</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>167882</v>
+        <v>168031</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>209788</v>
+        <v>208784</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.2651485821096575</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.2351055132642838</v>
+        <v>0.2353139606498683</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.2937913038711159</v>
+        <v>0.2923851964977787</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>577</v>
@@ -6592,19 +6592,19 @@
         <v>493228</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>460938</v>
+        <v>459842</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>532360</v>
+        <v>530493</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.3490856335750597</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.3262325617477619</v>
+        <v>0.3254568517692739</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.3767817889347549</v>
+        <v>0.3754601889371979</v>
       </c>
     </row>
     <row r="16">
@@ -6621,19 +6621,19 @@
         <v>305533</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>277335</v>
+        <v>275544</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>334787</v>
+        <v>333264</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4371988889898595</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3968498917571552</v>
+        <v>0.3942864274453939</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4790600123016024</v>
+        <v>0.4768805691994631</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>572</v>
@@ -6642,19 +6642,19 @@
         <v>433010</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>410270</v>
+        <v>409736</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>455262</v>
+        <v>454909</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.6063957118800363</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.574550159037948</v>
+        <v>0.5738023097875041</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6375581160558055</v>
+        <v>0.6370626771797989</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>847</v>
@@ -6663,19 +6663,19 @@
         <v>738543</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>702938</v>
+        <v>699632</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>776479</v>
+        <v>774474</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.5227091786015957</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.4975097828782772</v>
+        <v>0.4951701442313551</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5495586115683666</v>
+        <v>0.5481399590631825</v>
       </c>
     </row>
     <row r="17">
@@ -6695,7 +6695,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>5438</v>
+        <v>6727</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.001601878142535791</v>
@@ -6704,7 +6704,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.007781557907758756</v>
+        <v>0.009625343340108781</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>19</v>
@@ -6713,19 +6713,19 @@
         <v>15249</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>9499</v>
+        <v>9326</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>24250</v>
+        <v>23937</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.02135431009819308</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.01330273778353804</v>
+        <v>0.01306005963243464</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.03396019876870063</v>
+        <v>0.03352179145033021</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>20</v>
@@ -6734,19 +6734,19 @@
         <v>16368</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>9487</v>
+        <v>9731</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>24735</v>
+        <v>26142</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.01158454890557191</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.006714527001988551</v>
+        <v>0.006886899692931268</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.01750617814284446</v>
+        <v>0.01850208507918572</v>
       </c>
     </row>
     <row r="18">
@@ -6838,19 +6838,19 @@
         <v>585110</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>540512</v>
+        <v>542047</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>627793</v>
+        <v>633438</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1700494400415483</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1570880229689027</v>
+        <v>0.1575340780385544</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1824542713712728</v>
+        <v>0.1840948401794972</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>961</v>
@@ -6859,19 +6859,19 @@
         <v>615273</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>572089</v>
+        <v>577289</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>653817</v>
+        <v>651295</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1715253950298872</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1594864822789379</v>
+        <v>0.1609360823622699</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1822706042882922</v>
+        <v>0.1815674662072741</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>1572</v>
@@ -6880,19 +6880,19 @@
         <v>1200384</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>1145103</v>
+        <v>1142763</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>1269294</v>
+        <v>1263619</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1708027743857781</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1629369343679641</v>
+        <v>0.1626039905131224</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1806080832668187</v>
+        <v>0.1798004882318458</v>
       </c>
     </row>
     <row r="20">
@@ -6909,19 +6909,19 @@
         <v>1545355</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1480639</v>
+        <v>1479934</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>1608673</v>
+        <v>1616630</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.4491236621570906</v>
+        <v>0.4491236621570905</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.4303154127413099</v>
+        <v>0.4301105608941214</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4675255344276932</v>
+        <v>0.4698380624787389</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1905</v>
@@ -6930,19 +6930,19 @@
         <v>1236402</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1183139</v>
+        <v>1185030</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>1285418</v>
+        <v>1284849</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.3446829662050601</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.3298345812677121</v>
+        <v>0.3303616334681791</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3583478213928948</v>
+        <v>0.3581892292529839</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>3459</v>
@@ -6951,19 +6951,19 @@
         <v>2781757</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>2691394</v>
+        <v>2698965</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>2867945</v>
+        <v>2868653</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.3958166414027043</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.3829588284113654</v>
+        <v>0.3840362126944008</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.4080803969302526</v>
+        <v>0.4081811157835207</v>
       </c>
     </row>
     <row r="21">
@@ -6980,19 +6980,19 @@
         <v>1277125</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>1214313</v>
+        <v>1210470</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>1342367</v>
+        <v>1341359</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.3711685412893161</v>
+        <v>0.371168541289316</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.3529135675720044</v>
+        <v>0.3517967919337128</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3901295713309231</v>
+        <v>0.3898367318517647</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>2166</v>
@@ -7001,19 +7001,19 @@
         <v>1652436</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>1598293</v>
+        <v>1601624</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>1710560</v>
+        <v>1707400</v>
       </c>
       <c r="N21" s="6" t="n">
-        <v>0.4606646209191628</v>
+        <v>0.4606646209191629</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.4455706050769375</v>
+        <v>0.4464994614632544</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.4768685111082013</v>
+        <v>0.4759874331882804</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>3265</v>
@@ -7022,19 +7022,19 @@
         <v>2929561</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>2841031</v>
+        <v>2836187</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>3022532</v>
+        <v>3018688</v>
       </c>
       <c r="U21" s="6" t="n">
-        <v>0.4168477598235899</v>
+        <v>0.4168477598235898</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.4042507684114323</v>
+        <v>0.4035614816074802</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.4300766070049318</v>
+        <v>0.4295296512518104</v>
       </c>
     </row>
     <row r="22">
@@ -7051,19 +7051,19 @@
         <v>33233</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>19075</v>
+        <v>19337</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>56173</v>
+        <v>55046</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.009658356512045141</v>
+        <v>0.009658356512045139</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.005543686595709995</v>
+        <v>0.005619827640941267</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01632557614905701</v>
+        <v>0.01599778803787293</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>89</v>
@@ -7072,19 +7072,19 @@
         <v>82958</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>66010</v>
+        <v>65644</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>106659</v>
+        <v>104063</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.0231270178458898</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01840233463096298</v>
+        <v>0.01830019245437313</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.02973417038693668</v>
+        <v>0.02901053888636778</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>110</v>
@@ -7093,19 +7093,19 @@
         <v>116191</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>93526</v>
+        <v>91448</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>146601</v>
+        <v>146779</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01653282438792775</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01330784236188385</v>
+        <v>0.01301221783843618</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02085985535408131</v>
+        <v>0.02088520338581646</v>
       </c>
     </row>
     <row r="23">
